--- a/docs/campos-xml-nao-localizados-nos-csvs.xlsx
+++ b/docs/campos-xml-nao-localizados-nos-csvs.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murasaki\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23F825-FEF6-4F7E-B4AE-FB7AB98FCB27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,14 +45,14 @@
         </r>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">NÃO</t>
+          <t>NÃO</t>
         </r>
         <r>
           <rPr>
@@ -62,55 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">"PRI" indica campos que existem na(s) tabela(s) do MySQL
-"SEC" indica que </t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">NÃO</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> existem na(s) tabela(s) do MySQL. São campos gerados por concanetação de outros campos, por exemplo.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -144,14 +101,14 @@
         </r>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">não</t>
+          <t>não</t>
         </r>
         <r>
           <rPr>
@@ -167,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +134,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Subcampo [1,2,3,c,p]
+          <t>Subcampo [1,2,3,c,p]
 ( if p(v10^a) or p(v10^1) then '    &lt;field name="af"&gt;'if p(v10^a) then ||v10^a|| else if v10^1='s.af' then v10^1 else ||v10^1,fi,fi'&lt;/field&gt;'/,fi),
 ( if p(v10^2) then '    &lt;field name="af"&gt;'if p(v10^2) then ||v10^2|| fi'&lt;/field&gt;'/,fi),
 ( if p(v10^3) then '    &lt;field name="af"&gt;'if p(v10^3) then ||v10^3|| fi'&lt;/field&gt;'/,fi),
@@ -192,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +159,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Subcampo [1,2,3,c,p]
+          <t>Subcampo [1,2,3,c,p]
 ( if p(v10^a) or p(v10^1) then '    &lt;field name="af"&gt;'if p(v10^a) then ||v10^a|| else if v10^1='s.af' then v10^1 else ||v10^1,fi,fi'&lt;/field&gt;'/,fi),
 ( if p(v10^2) then '    &lt;field name="af"&gt;'if p(v10^2) then ||v10^2|| fi'&lt;/field&gt;'/,fi),
 ( if p(v10^3) then '    &lt;field name="af"&gt;'if p(v10^3) then ||v10^3|| fi'&lt;/field&gt;'/,fi),
@@ -217,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +184,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Subcampo [1,2,3,c,p]
+          <t>Subcampo [1,2,3,c,p]
 ( if p(v10^a) or p(v10^1) then '    &lt;field name="af"&gt;'if p(v10^a) then ||v10^a|| else if v10^1='s.af' then v10^1 else ||v10^1,fi,fi'&lt;/field&gt;'/,fi),
 ( if p(v10^2) then '    &lt;field name="af"&gt;'if p(v10^2) then ||v10^2|| fi'&lt;/field&gt;'/,fi),
 ( if p(v10^3) then '    &lt;field name="af"&gt;'if p(v10^3) then ||v10^3|| fi'&lt;/field&gt;'/,fi),
@@ -242,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +209,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Subcampo [1,2,3,c,p]
+          <t>Subcampo [1,2,3,c,p]
 ( if p(v10^a) or p(v10^1) then '    &lt;field name="af"&gt;'if p(v10^a) then ||v10^a|| else if v10^1='s.af' then v10^1 else ||v10^1,fi,fi'&lt;/field&gt;'/,fi),
 ( if p(v10^2) then '    &lt;field name="af"&gt;'if p(v10^2) then ||v10^2|| fi'&lt;/field&gt;'/,fi),
 ( if p(v10^3) then '    &lt;field name="af"&gt;'if p(v10^3) then ||v10^3|| fi'&lt;/field&gt;'/,fi),
@@ -267,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +234,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Subcampo [1,2,3,c,p]
+          <t>Subcampo [1,2,3,c,p]
 ( if p(v10^a) or p(v10^1) then '    &lt;field name="af"&gt;'if p(v10^a) then ||v10^a|| else if v10^1='s.af' then v10^1 else ||v10^1,fi,fi'&lt;/field&gt;'/,fi),
 ( if p(v10^2) then '    &lt;field name="af"&gt;'if p(v10^2) then ||v10^2|| fi'&lt;/field&gt;'/,fi),
 ( if p(v10^3) then '    &lt;field name="af"&gt;'if p(v10^3) then ||v10^3|| fi'&lt;/field&gt;'/,fi),
@@ -292,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -310,11 +267,58 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">"PRI" indica campos que existem na(s) tabela(s) do MySQL
+"SEC" indica que </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NÃO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> existem na(s) tabela(s) do MySQL. São campos gerados por concanetação de outros campos, por exemplo.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
@@ -344,14 +348,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Nome da instância IAHx, vêm do arquivo coletasXML-IAHx.tab (7a. Coluna) – para Portal Regional
@@ -360,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -435,14 +438,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0">
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Nome da Base de dados (repetitivo); segue as regras em db.pft;
@@ -451,7 +453,7 @@
         </r>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
@@ -496,7 +498,7 @@
         </r>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
@@ -522,7 +524,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
@@ -530,14 +531,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">biblio-915184 doc com problema no campo 653:
@@ -546,14 +546,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0">
+    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Utilizado no GOOGLE-Scholar
@@ -561,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -606,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0">
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -640,14 +639,14 @@
         </r>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">biblioref_reference.id</t>
+          <t>biblioref_reference.id</t>
         </r>
         <r>
           <rPr>
@@ -661,7 +660,7 @@
         </r>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
@@ -678,11 +677,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">biblioref_referencealternateid</t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
+          <t>biblioref_referencealternateid</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
@@ -700,18 +699,18 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">biblioref_referenceanalytic.</t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
+          <t>biblioref_referenceanalytic.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">source_id</t>
+          <t>source_id</t>
         </r>
         <r>
           <rPr>
@@ -725,7 +724,7 @@
         </r>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
@@ -749,14 +748,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Condicionado ao nome da base de dados (campo db)
@@ -764,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="0">
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -784,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -798,14 +796,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="0">
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Idioma do texto do documento:
@@ -824,14 +821,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">  (if v88:'^0x' then
@@ -843,14 +839,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">  (if v87:'^0x' then
@@ -862,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -883,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0">
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -898,14 +893,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">(if p(v71^0) then |    &lt;field name="pt"&gt;|v71^*|&lt;/field&gt;|/,,else  |    &lt;field name="pt"&gt;^d|v71^*|&lt;/field&gt;|/ fi)
@@ -918,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -933,7 +927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="0">
+    <comment ref="B77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -948,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="0">
+    <comment ref="B81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -966,14 +960,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="0">
+    <comment ref="B88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">PFT → doctype.pft
@@ -981,14 +974,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B89" authorId="0">
+    <comment ref="B89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Resultante de estratégia – cluster tipo de estudo
@@ -996,14 +988,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0">
+    <comment ref="B93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Utilizado para fazer rank do registro em função da data
@@ -1016,284 +1007,299 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">Nome do campo no XML-IAHx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Aba Arquivo CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab_&lt;idioma 2 letras&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afiliacao_autor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alternate_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ano_publicacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carpha_author_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carpha_country_focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carpha_geral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carpha_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carpha_type_document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clinical_aspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_cy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_dt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collection_aps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descritores_locais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dp_ym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entry_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulltext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instituicao_pais_afiliacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isbn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,5, 7, 10, 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivel_tratamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_indexing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non_decs_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nro_month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_sjr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pais_afiliacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pais_assunto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pg (campo repetido)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr_na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regional_office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th_le</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th_ti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ti_&lt;idioma 2 letras&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ti_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_of_study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
+  <si>
+    <t>Nome do campo no XML-IAHx</t>
+  </si>
+  <si>
+    <t># Aba Arquivo CSV</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>ab_&lt;idioma 2 letras&gt;</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>afiliacao_autor</t>
+  </si>
+  <si>
+    <t>alternate_id</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>ano_publicacao</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>book_title</t>
+  </si>
+  <si>
+    <t>carpha_author_location</t>
+  </si>
+  <si>
+    <t>carpha_country_focus</t>
+  </si>
+  <si>
+    <t>carpha_geral</t>
+  </si>
+  <si>
+    <t>carpha_language</t>
+  </si>
+  <si>
+    <t>carpha_type_document</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>clinical_aspect</t>
+  </si>
+  <si>
+    <t>cn_co</t>
+  </si>
+  <si>
+    <t>cn_cy</t>
+  </si>
+  <si>
+    <t>cn_da</t>
+  </si>
+  <si>
+    <t>cn_dt</t>
+  </si>
+  <si>
+    <t>cn_in</t>
+  </si>
+  <si>
+    <t>cn_na</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>collection_aps</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>descritores_locais</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>dp_ym</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>entry_date</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>fulltext</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>instituicao_pais_afiliacao</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>jd</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>2,5, 7, 10, 16</t>
+  </si>
+  <si>
+    <t>mj</t>
+  </si>
+  <si>
+    <t>nivel_tratamento</t>
+  </si>
+  <si>
+    <t>no_indexing</t>
+  </si>
+  <si>
+    <t>non_decs_region</t>
+  </si>
+  <si>
+    <t>nro_month</t>
+  </si>
+  <si>
+    <t>order_sjr</t>
+  </si>
+  <si>
+    <t>pais_afiliacao</t>
+  </si>
+  <si>
+    <t>pais_assunto</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>pg (campo repetido)</t>
+  </si>
+  <si>
+    <t>pr_in</t>
+  </si>
+  <si>
+    <t>pr_na</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>regional_office</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>ta_var</t>
+  </si>
+  <si>
+    <t>th_in</t>
+  </si>
+  <si>
+    <t>th_le</t>
+  </si>
+  <si>
+    <t>th_ti</t>
+  </si>
+  <si>
+    <t>ti_&lt;idioma 2 letras&gt;</t>
+  </si>
+  <si>
+    <t>ti_en</t>
+  </si>
+  <si>
+    <t>tombo</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type_of_study</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t># Aba Arquivo CSV (candidato)</t>
+  </si>
+  <si>
+    <t>criar novo csv(colecao) - 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (pegar do indexado em [biblioref_reference.indexed_database] ao invés da base local [biblioref_referencelocal.database], como está explicado na aba 4)</t>
+  </si>
+  <si>
+    <t>criar no 7 (true/false)</t>
+  </si>
+  <si>
+    <t>criar no 16 (atenção: CY está como país de publicação no CSV))</t>
+  </si>
+  <si>
+    <t>criar no 16 (atenção: tem DP que contém apenas o ano YYYY))</t>
+  </si>
+  <si>
+    <t>criar no 16 (atenção: DP atualmente contém apenas o ano YYYY))</t>
+  </si>
+  <si>
+    <t>criar no 16</t>
+  </si>
+  <si>
+    <t>criar no 16 se for valor de uma única ocorrência, caso contrário, criar nova planilh/coleção</t>
+  </si>
+  <si>
+    <t>Não encontrei referência no Excel CamposXML_LILACS_PortalRegional.xlsx</t>
+  </si>
+  <si>
+    <t>criar no 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1316,7 +1322,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
@@ -1327,11 +1333,10 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1350,113 +1355,89 @@
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1471,6 +1452,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1529,31 +1511,2109 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1096" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB96EDF7-2E5C-491E-9DF3-E9DFBE4EC4DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1094" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F542FCE2-2D38-4FE1-9CB4-247D54C6E619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1092" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6CC2AF-3B79-44F1-8389-A8C77D193233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1090" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D914F2F7-EDA2-482C-8552-1FFE6352EA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1088" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D40ACDC-6538-477E-9291-1203DB448BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1086" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A75B17-1E77-42E6-9769-370BA1639C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1084" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DB0627-7C6B-43A3-9F92-45BA36540901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE3DCC6-BA44-440D-8C9C-7BE9583C0950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E306B0D-150A-4297-AC13-A79B43A9DDA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF9555D-480E-4C9C-891A-515D6733144B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82158A2A-87EB-41CB-8F82-EB8114DF585F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920F0DE9-0415-4464-8A07-8D9F2613BEBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F66BFA-E701-4CAE-80C7-CE154E48161B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D845F62-DD0A-40F6-93DF-385EA6F067BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909B6385-AB7F-4E3D-BF14-D26ACF11B11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BB9809-61CF-4E40-B9C9-C20ECD781001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90442851-C38D-4441-B54E-41925B2D02EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DBBCDC-DCFD-45B5-B973-EA25AA03BE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27487B5-CED5-4694-B8F0-E1C81B0D0A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A56551E-4ED0-4B75-9A33-3E196828C6B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13988665-A967-48C8-84BB-66FB0374AD0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148D87DB-900C-4562-A2AD-B65AFAD49132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EC018F-955C-40F1-8F28-F2C35AF04F92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A3C8CC-7E9F-4558-8DE2-FC54EBAEC500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287A19FC-439D-457A-8899-390AADBED59D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FC9E0C-DDFF-42B4-8A47-FE7D2B364E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8220941-61AF-4925-BED4-7316A4315230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87D2595-7C23-4AE6-9ECB-601AC8817BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9093F3-49E1-49A4-A8FB-64D84F8AED18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B46487-BF51-4BEE-BEBD-60B62BBE92C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4264ABC4-DE5A-4E99-83C0-D2D113ED4FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA09F35-0808-497D-973E-1883B1362E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A7538E-8291-4DCD-B2C2-1175582ABF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54626CAE-3839-4BFD-BB95-50341AD89638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09B4105-363D-41AA-BCBC-84950861C385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99F9E5D-0902-4262-B540-4BD4384FBF03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="130.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1561,96 +3621,99 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1658,85 +3721,88 @@
         <v>7</v>
       </c>
       <c r="C10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="D10" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="C12" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C13" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C14" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="C15" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="C16" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
@@ -1744,8 +3810,11 @@
         <v>11</v>
       </c>
       <c r="C18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +3823,7 @@
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +3832,7 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
@@ -1772,7 +3841,7 @@
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>8</v>
       </c>
@@ -1781,7 +3850,7 @@
       </c>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
@@ -1790,18 +3859,18 @@
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
@@ -1810,7 +3879,7 @@
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
@@ -1818,8 +3887,11 @@
         <v>19</v>
       </c>
       <c r="C26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -1827,8 +3899,11 @@
         <v>20</v>
       </c>
       <c r="C27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
@@ -1836,8 +3911,11 @@
         <v>21</v>
       </c>
       <c r="C28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
@@ -1845,8 +3923,11 @@
         <v>22</v>
       </c>
       <c r="C29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1854,8 +3935,11 @@
         <v>23</v>
       </c>
       <c r="C30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1863,9 +3947,12 @@
         <v>24</v>
       </c>
       <c r="C31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="D31" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1873,7 +3960,7 @@
       </c>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>8</v>
       </c>
@@ -1882,18 +3969,18 @@
       </c>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>2</v>
       </c>
@@ -1901,8 +3988,11 @@
         <v>28</v>
       </c>
       <c r="C35" s="8"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -1910,50 +4000,64 @@
         <v>29</v>
       </c>
       <c r="C36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="D36" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="D37" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="4" t="n">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="C38" s="8">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="C39" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +4066,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +4075,7 @@
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>2</v>
       </c>
@@ -1979,8 +4083,11 @@
         <v>36</v>
       </c>
       <c r="C43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>2</v>
       </c>
@@ -1988,19 +4095,22 @@
         <v>37</v>
       </c>
       <c r="C44" s="8"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="D44" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>8</v>
       </c>
@@ -2009,8 +4119,8 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -2018,19 +4128,19 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -2038,7 +4148,7 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>8</v>
       </c>
@@ -2047,29 +4157,29 @@
       </c>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>2</v>
       </c>
@@ -2077,39 +4187,43 @@
         <v>46</v>
       </c>
       <c r="C53" s="8"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="D53" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="4"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="4" t="n">
+      <c r="C56" s="4">
         <v>8.16</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +4232,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>2</v>
       </c>
@@ -2126,9 +4240,12 @@
         <v>51</v>
       </c>
       <c r="C58" s="8"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="D58" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -2138,8 +4255,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -2149,19 +4266,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2169,7 +4286,7 @@
       </c>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>2</v>
       </c>
@@ -2177,8 +4294,11 @@
         <v>57</v>
       </c>
       <c r="C63" s="8"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>8</v>
       </c>
@@ -2187,8 +4307,8 @@
       </c>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -2196,8 +4316,8 @@
       </c>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -2205,8 +4325,8 @@
       </c>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -2214,7 +4334,7 @@
       </c>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>2</v>
       </c>
@@ -2222,9 +4342,12 @@
         <v>62</v>
       </c>
       <c r="C68" s="8"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="D68" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -2232,7 +4355,7 @@
       </c>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>2</v>
       </c>
@@ -2240,26 +4363,32 @@
         <v>64</v>
       </c>
       <c r="C70" s="8"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="8"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="D71" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>2</v>
       </c>
@@ -2267,9 +4396,12 @@
         <v>67</v>
       </c>
       <c r="C73" s="8"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="D73" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -2277,8 +4409,8 @@
       </c>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -2286,19 +4418,19 @@
       </c>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="4" t="n">
+      <c r="C76" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -2306,7 +4438,7 @@
       </c>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>2</v>
       </c>
@@ -2314,8 +4446,11 @@
         <v>72</v>
       </c>
       <c r="C78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>2</v>
       </c>
@@ -2323,8 +4458,11 @@
         <v>73</v>
       </c>
       <c r="C79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>2</v>
       </c>
@@ -2332,19 +4470,22 @@
         <v>74</v>
       </c>
       <c r="C80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="D80" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="4" t="n">
+      <c r="C81" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>2</v>
       </c>
@@ -2352,19 +4493,22 @@
         <v>76</v>
       </c>
       <c r="C82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="D82" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="4" t="n">
+      <c r="C83" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>2</v>
       </c>
@@ -2372,19 +4516,22 @@
         <v>76</v>
       </c>
       <c r="C84" s="8"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="D84" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="4" t="n">
+      <c r="C85" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -2392,8 +4539,11 @@
         <v>76</v>
       </c>
       <c r="C86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>2</v>
       </c>
@@ -2401,9 +4551,12 @@
         <v>77</v>
       </c>
       <c r="C87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="D87" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -2411,8 +4564,8 @@
       </c>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -2420,41 +4573,41 @@
       </c>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="4" t="n">
+      <c r="C90" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="4" t="n">
+      <c r="C91" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="4" t="n">
+      <c r="C92" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -2462,18 +4615,18 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A87:A1048576 A2:B9 B87:B1048576 A32:B33 A35:B35 A45:B50 A52:B57 A59:B62 A64:B67 A71:B72 A74:B77 A81:B81 A83:B83 A85:B85 A19:B25 A38:B42 A69:B69 A11:B17">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="A2:B9 A87:B1048576 A32:B33 A35:B35 A45:B50 A52:B57 A59:B62 A64:B67 A71:B72 A74:B77 A81:B81 A83:B83 A85:B85 A19:B25 A39:B39 A69:B69 A11:B17 A41:B42">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>